--- a/produtores_Consider.xlsx
+++ b/produtores_Consider.xlsx
@@ -18139,19 +18139,19 @@
         <v>391</v>
       </c>
       <c r="M305" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N305" s="0">
         <v>3</v>
       </c>
       <c r="O305" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P305" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q305" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R305" t="s">
         <v>431</v>
@@ -18194,19 +18194,19 @@
         <v>391</v>
       </c>
       <c r="M306" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N306" s="0">
         <v>3</v>
       </c>
       <c r="O306" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P306" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q306" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R306" t="s">
         <v>431</v>
@@ -18249,19 +18249,19 @@
         <v>391</v>
       </c>
       <c r="M307" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N307" s="0">
         <v>3</v>
       </c>
       <c r="O307" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P307" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="Q307" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R307" t="s">
         <v>431</v>
@@ -18304,19 +18304,19 @@
         <v>391</v>
       </c>
       <c r="M308" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N308" s="0">
         <v>3</v>
       </c>
       <c r="O308" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P308" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="Q308" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R308" t="s">
         <v>431</v>
@@ -18359,19 +18359,19 @@
         <v>391</v>
       </c>
       <c r="M309" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N309" s="0">
         <v>3</v>
       </c>
       <c r="O309" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P309" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="Q309" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R309" t="s">
         <v>431</v>
@@ -18414,19 +18414,19 @@
         <v>391</v>
       </c>
       <c r="M310" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N310" s="0">
         <v>3</v>
       </c>
       <c r="O310" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P310" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="Q310" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R310" t="s">
         <v>431</v>
@@ -18467,19 +18467,19 @@
         <v>373</v>
       </c>
       <c r="M311" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N311" s="0">
         <v>3</v>
       </c>
       <c r="O311" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P311" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q311" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R311" t="s">
         <v>431</v>
@@ -18520,19 +18520,19 @@
         <v>373</v>
       </c>
       <c r="M312" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="N312" s="0">
         <v>3</v>
       </c>
       <c r="O312" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P312" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q312" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="R312" t="s">
         <v>431</v>
@@ -18575,19 +18575,19 @@
         <v>391</v>
       </c>
       <c r="M313" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N313" s="0">
         <v>3</v>
       </c>
       <c r="O313" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P313" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q313" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R313" t="s">
         <v>431</v>
@@ -18630,19 +18630,19 @@
         <v>391</v>
       </c>
       <c r="M314" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N314" s="0">
         <v>3</v>
       </c>
       <c r="O314" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P314" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q314" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R314" t="s">
         <v>431</v>
@@ -18685,19 +18685,19 @@
         <v>391</v>
       </c>
       <c r="M315" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N315" s="0">
         <v>3</v>
       </c>
       <c r="O315" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P315" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="Q315" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R315" t="s">
         <v>431</v>
@@ -18740,19 +18740,19 @@
         <v>391</v>
       </c>
       <c r="M316" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N316" s="0">
         <v>3</v>
       </c>
       <c r="O316" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P316" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="Q316" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R316" t="s">
         <v>431</v>
@@ -18793,19 +18793,19 @@
         <v>373</v>
       </c>
       <c r="M317" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="N317" s="0">
         <v>3</v>
       </c>
       <c r="O317" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P317" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q317" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="R317" t="s">
         <v>431</v>
@@ -18846,19 +18846,19 @@
         <v>373</v>
       </c>
       <c r="M318" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N318" s="0">
         <v>3</v>
       </c>
       <c r="O318" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P318" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q318" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R318" t="s">
         <v>431</v>
@@ -18899,19 +18899,19 @@
         <v>373</v>
       </c>
       <c r="M319" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="N319" s="0">
         <v>3</v>
       </c>
       <c r="O319" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P319" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q319" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="R319" t="s">
         <v>431</v>
@@ -18952,19 +18952,19 @@
         <v>373</v>
       </c>
       <c r="M320" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N320" s="0">
         <v>3</v>
       </c>
       <c r="O320" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P320" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q320" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R320" t="s">
         <v>431</v>
@@ -19333,19 +19333,19 @@
         <v>391</v>
       </c>
       <c r="M327" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N327" s="0">
         <v>3</v>
       </c>
       <c r="O327" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P327" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q327" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R327" t="s">
         <v>431</v>
@@ -19388,19 +19388,19 @@
         <v>391</v>
       </c>
       <c r="M328" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N328" s="0">
         <v>3</v>
       </c>
       <c r="O328" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P328" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q328" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R328" t="s">
         <v>431</v>
@@ -19659,19 +19659,19 @@
         <v>391</v>
       </c>
       <c r="M333" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N333" s="0">
         <v>3</v>
       </c>
       <c r="O333" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P333" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q333" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R333" t="s">
         <v>431</v>
@@ -19714,19 +19714,19 @@
         <v>391</v>
       </c>
       <c r="M334" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N334" s="0">
         <v>3</v>
       </c>
       <c r="O334" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P334" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q334" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R334" t="s">
         <v>431</v>
@@ -19769,19 +19769,19 @@
         <v>391</v>
       </c>
       <c r="M335" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N335" s="0">
         <v>3</v>
       </c>
       <c r="O335" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P335" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q335" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R335" t="s">
         <v>431</v>
@@ -19824,19 +19824,19 @@
         <v>391</v>
       </c>
       <c r="M336" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N336" s="0">
         <v>3</v>
       </c>
       <c r="O336" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P336" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q336" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R336" t="s">
         <v>431</v>
@@ -19877,19 +19877,19 @@
         <v>373</v>
       </c>
       <c r="M337" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="N337" s="0">
         <v>3</v>
       </c>
       <c r="O337" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P337" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q337" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="R337" t="s">
         <v>431</v>
@@ -19930,19 +19930,19 @@
         <v>373</v>
       </c>
       <c r="M338" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N338" s="0">
         <v>3</v>
       </c>
       <c r="O338" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P338" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q338" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R338" t="s">
         <v>431</v>
@@ -19985,19 +19985,19 @@
         <v>391</v>
       </c>
       <c r="M339" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N339" s="0">
         <v>3</v>
       </c>
       <c r="O339" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P339" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q339" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R339" t="s">
         <v>431</v>
@@ -20040,19 +20040,19 @@
         <v>391</v>
       </c>
       <c r="M340" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N340" s="0">
         <v>3</v>
       </c>
       <c r="O340" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P340" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q340" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R340" t="s">
         <v>431</v>
@@ -20093,19 +20093,19 @@
         <v>373</v>
       </c>
       <c r="M341" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="N341" s="0">
         <v>3</v>
       </c>
       <c r="O341" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P341" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q341" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="R341" t="s">
         <v>431</v>
@@ -20146,19 +20146,19 @@
         <v>373</v>
       </c>
       <c r="M342" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N342" s="0">
         <v>3</v>
       </c>
       <c r="O342" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P342" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q342" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R342" t="s">
         <v>431</v>
@@ -20311,19 +20311,19 @@
         <v>391</v>
       </c>
       <c r="M345" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N345" s="0">
         <v>3</v>
       </c>
       <c r="O345" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P345" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q345" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R345" t="s">
         <v>431</v>
@@ -20366,19 +20366,19 @@
         <v>391</v>
       </c>
       <c r="M346" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N346" s="0">
         <v>3</v>
       </c>
       <c r="O346" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P346" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q346" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R346" t="s">
         <v>431</v>
@@ -20529,19 +20529,19 @@
         <v>391</v>
       </c>
       <c r="M349" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N349" s="0">
         <v>3</v>
       </c>
       <c r="O349" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P349" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="Q349" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R349" t="s">
         <v>431</v>
@@ -20582,19 +20582,19 @@
         <v>391</v>
       </c>
       <c r="M350" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N350" s="0">
         <v>3</v>
       </c>
       <c r="O350" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P350" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="Q350" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R350" t="s">
         <v>431</v>
@@ -20635,19 +20635,19 @@
         <v>373</v>
       </c>
       <c r="M351" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N351" s="0">
         <v>3</v>
       </c>
       <c r="O351" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P351" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q351" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R351" t="s">
         <v>431</v>
@@ -20688,19 +20688,19 @@
         <v>373</v>
       </c>
       <c r="M352" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="N352" s="0">
         <v>3</v>
       </c>
       <c r="O352" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P352" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q352" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="R352" t="s">
         <v>431</v>

--- a/produtores_Consider.xlsx
+++ b/produtores_Consider.xlsx
@@ -18139,19 +18139,19 @@
         <v>391</v>
       </c>
       <c r="M305" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N305" s="0">
         <v>3</v>
       </c>
       <c r="O305" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P305" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q305" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R305" t="s">
         <v>431</v>
@@ -18194,19 +18194,19 @@
         <v>391</v>
       </c>
       <c r="M306" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N306" s="0">
         <v>3</v>
       </c>
       <c r="O306" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P306" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q306" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R306" t="s">
         <v>431</v>
@@ -19225,19 +19225,19 @@
         <v>373</v>
       </c>
       <c r="M325" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="N325" s="0">
         <v>3</v>
       </c>
       <c r="O325" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P325" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q325" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="R325" t="s">
         <v>431</v>
@@ -19278,19 +19278,19 @@
         <v>373</v>
       </c>
       <c r="M326" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N326" s="0">
         <v>3</v>
       </c>
       <c r="O326" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P326" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q326" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R326" t="s">
         <v>431</v>
@@ -19333,19 +19333,19 @@
         <v>391</v>
       </c>
       <c r="M327" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N327" s="0">
         <v>3</v>
       </c>
       <c r="O327" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P327" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q327" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R327" t="s">
         <v>431</v>
@@ -19388,19 +19388,19 @@
         <v>391</v>
       </c>
       <c r="M328" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N328" s="0">
         <v>3</v>
       </c>
       <c r="O328" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P328" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q328" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R328" t="s">
         <v>431</v>
@@ -19441,19 +19441,19 @@
         <v>373</v>
       </c>
       <c r="M329" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="N329" s="0">
         <v>3</v>
       </c>
       <c r="O329" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P329" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q329" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="R329" t="s">
         <v>431</v>
@@ -19494,19 +19494,19 @@
         <v>373</v>
       </c>
       <c r="M330" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N330" s="0">
         <v>3</v>
       </c>
       <c r="O330" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P330" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q330" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R330" t="s">
         <v>431</v>
@@ -19985,19 +19985,19 @@
         <v>391</v>
       </c>
       <c r="M339" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N339" s="0">
         <v>3</v>
       </c>
       <c r="O339" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P339" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q339" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R339" t="s">
         <v>431</v>
@@ -20040,19 +20040,19 @@
         <v>391</v>
       </c>
       <c r="M340" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N340" s="0">
         <v>3</v>
       </c>
       <c r="O340" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="P340" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q340" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R340" t="s">
         <v>431</v>
@@ -20311,19 +20311,19 @@
         <v>391</v>
       </c>
       <c r="M345" t="s">
-        <v>391</v>
+        <v>373</v>
       </c>
       <c r="N345" s="0">
         <v>3</v>
       </c>
       <c r="O345" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P345" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q345" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="R345" t="s">
         <v>431</v>
@@ -20366,19 +20366,19 @@
         <v>391</v>
       </c>
       <c r="M346" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N346" s="0">
         <v>3</v>
       </c>
       <c r="O346" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P346" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q346" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R346" t="s">
         <v>431</v>
@@ -20635,19 +20635,19 @@
         <v>373</v>
       </c>
       <c r="M351" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="N351" s="0">
         <v>3</v>
       </c>
       <c r="O351" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="P351" t="s">
-        <v>390</v>
+        <v>373</v>
       </c>
       <c r="Q351" t="s">
-        <v>429</v>
+        <v>373</v>
       </c>
       <c r="R351" t="s">
         <v>431</v>
@@ -20688,19 +20688,19 @@
         <v>373</v>
       </c>
       <c r="M352" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N352" s="0">
         <v>3</v>
       </c>
       <c r="O352" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P352" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q352" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R352" t="s">
         <v>431</v>
@@ -38728,19 +38728,19 @@
         <v>390</v>
       </c>
       <c r="M680" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N680" s="0">
         <v>7</v>
       </c>
       <c r="O680" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P680" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q680" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R680" t="s">
         <v>431</v>
@@ -38783,16 +38783,16 @@
         <v>391</v>
       </c>
       <c r="M681" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N681" s="0">
         <v>7</v>
       </c>
       <c r="O681" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P681" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q681" t="s">
         <v>373</v>
@@ -38838,19 +38838,19 @@
         <v>390</v>
       </c>
       <c r="M682" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N682" s="0">
         <v>7</v>
       </c>
       <c r="O682" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P682" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="Q682" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R682" t="s">
         <v>431</v>
@@ -38891,19 +38891,19 @@
         <v>391</v>
       </c>
       <c r="M683" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N683" s="0">
         <v>7</v>
       </c>
       <c r="O683" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P683" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q683" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R683" t="s">
         <v>431</v>
@@ -38946,19 +38946,19 @@
         <v>391</v>
       </c>
       <c r="M684" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N684" s="0">
         <v>7</v>
       </c>
       <c r="O684" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P684" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q684" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R684" t="s">
         <v>431</v>
@@ -39001,19 +39001,19 @@
         <v>390</v>
       </c>
       <c r="M685" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N685" s="0">
         <v>7</v>
       </c>
       <c r="O685" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P685" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q685" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R685" t="s">
         <v>431</v>
@@ -39056,16 +39056,16 @@
         <v>373</v>
       </c>
       <c r="M686" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N686" s="0">
         <v>7</v>
       </c>
       <c r="O686" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P686" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q686" t="s">
         <v>373</v>
@@ -39109,19 +39109,19 @@
         <v>390</v>
       </c>
       <c r="M687" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N687" s="0">
         <v>7</v>
       </c>
       <c r="O687" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P687" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q687" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R687" t="s">
         <v>431</v>
@@ -39166,19 +39166,19 @@
         <v>390</v>
       </c>
       <c r="M688" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N688" s="0">
         <v>7</v>
       </c>
       <c r="O688" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P688" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q688" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R688" t="s">
         <v>431</v>
@@ -39219,19 +39219,19 @@
         <v>391</v>
       </c>
       <c r="M689" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N689" s="0">
         <v>7</v>
       </c>
       <c r="O689" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P689" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q689" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R689" t="s">
         <v>431</v>
@@ -39272,19 +39272,19 @@
         <v>391</v>
       </c>
       <c r="M690" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N690" s="0">
         <v>7</v>
       </c>
       <c r="O690" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P690" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q690" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R690" t="s">
         <v>431</v>
@@ -39329,19 +39329,19 @@
         <v>390</v>
       </c>
       <c r="M691" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N691" s="0">
         <v>7</v>
       </c>
       <c r="O691" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P691" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="Q691" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R691" t="s">
         <v>431</v>
@@ -39386,19 +39386,19 @@
         <v>391</v>
       </c>
       <c r="M692" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N692" s="0">
         <v>7</v>
       </c>
       <c r="O692" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P692" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="Q692" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R692" t="s">
         <v>431</v>
@@ -39439,19 +39439,19 @@
         <v>391</v>
       </c>
       <c r="M693" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N693" s="0">
         <v>7</v>
       </c>
       <c r="O693" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P693" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="Q693" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R693" t="s">
         <v>431</v>
@@ -39492,16 +39492,16 @@
         <v>373</v>
       </c>
       <c r="M694" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N694" s="0">
         <v>7</v>
       </c>
       <c r="O694" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P694" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q694" t="s">
         <v>373</v>
@@ -39547,19 +39547,19 @@
         <v>391</v>
       </c>
       <c r="M695" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N695" s="0">
         <v>7</v>
       </c>
       <c r="O695" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P695" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q695" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R695" t="s">
         <v>431</v>
@@ -39602,19 +39602,19 @@
         <v>390</v>
       </c>
       <c r="M696" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N696" s="0">
         <v>7</v>
       </c>
       <c r="O696" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P696" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q696" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R696" t="s">
         <v>431</v>
@@ -39655,19 +39655,19 @@
         <v>391</v>
       </c>
       <c r="M697" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N697" s="0">
         <v>7</v>
       </c>
       <c r="O697" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P697" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q697" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R697" t="s">
         <v>431</v>
@@ -39710,19 +39710,19 @@
         <v>390</v>
       </c>
       <c r="M698" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N698" s="0">
         <v>7</v>
       </c>
       <c r="O698" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P698" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q698" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R698" t="s">
         <v>431</v>
@@ -39765,19 +39765,19 @@
         <v>391</v>
       </c>
       <c r="M699" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N699" s="0">
         <v>7</v>
       </c>
       <c r="O699" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P699" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q699" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R699" t="s">
         <v>431</v>
@@ -39818,16 +39818,16 @@
         <v>373</v>
       </c>
       <c r="M700" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N700" s="0">
         <v>7</v>
       </c>
       <c r="O700" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P700" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q700" t="s">
         <v>373</v>
@@ -39871,16 +39871,16 @@
         <v>373</v>
       </c>
       <c r="M701" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N701" s="0">
         <v>7</v>
       </c>
       <c r="O701" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P701" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q701" t="s">
         <v>373</v>
@@ -39924,19 +39924,19 @@
         <v>391</v>
       </c>
       <c r="M702" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N702" s="0">
         <v>7</v>
       </c>
       <c r="O702" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P702" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q702" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R702" t="s">
         <v>431</v>
@@ -39977,16 +39977,16 @@
         <v>373</v>
       </c>
       <c r="M703" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N703" s="0">
         <v>7</v>
       </c>
       <c r="O703" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P703" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q703" t="s">
         <v>373</v>
@@ -40030,16 +40030,16 @@
         <v>373</v>
       </c>
       <c r="M704" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N704" s="0">
         <v>7</v>
       </c>
       <c r="O704" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="P704" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q704" t="s">
         <v>373</v>
@@ -40085,19 +40085,19 @@
         <v>390</v>
       </c>
       <c r="M705" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N705" s="0">
         <v>7</v>
       </c>
       <c r="O705" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P705" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q705" t="s">
-        <v>373</v>
+        <v>429</v>
       </c>
       <c r="R705" t="s">
         <v>431</v>
@@ -40106,51 +40106,55 @@
     </row>
     <row r="706">
       <c r="A706" t="s">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="B706" t="s">
         <v>211</v>
       </c>
-      <c r="C706" s="0"/>
+      <c r="C706" s="0">
+        <v>53</v>
+      </c>
       <c r="D706" t="s">
         <v>368</v>
       </c>
       <c r="E706" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F706" t="s">
         <v>378</v>
       </c>
       <c r="G706" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="H706" t="s">
         <v>373</v>
       </c>
       <c r="I706" t="s">
-        <v>373</v>
-      </c>
-      <c r="J706" s="0"/>
+        <v>391</v>
+      </c>
+      <c r="J706" s="0">
+        <v>5</v>
+      </c>
       <c r="K706" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="L706" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="M706" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N706" s="0">
         <v>7</v>
       </c>
       <c r="O706" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P706" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q706" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R706" t="s">
         <v>431</v>
@@ -40159,7 +40163,7 @@
     </row>
     <row r="707">
       <c r="A707" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B707" t="s">
         <v>212</v>
@@ -40169,41 +40173,41 @@
         <v>368</v>
       </c>
       <c r="E707" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F707" t="s">
         <v>378</v>
       </c>
       <c r="G707" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="H707" t="s">
         <v>373</v>
       </c>
       <c r="I707" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="J707" s="0"/>
       <c r="K707" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="L707" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="M707" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N707" s="0">
         <v>7</v>
       </c>
       <c r="O707" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P707" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q707" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R707" t="s">
         <v>431</v>
@@ -40212,7 +40216,7 @@
     </row>
     <row r="708">
       <c r="A708" t="s">
-        <v>112</v>
+        <v>29</v>
       </c>
       <c r="B708" t="s">
         <v>213</v>
@@ -40222,41 +40226,43 @@
         <v>368</v>
       </c>
       <c r="E708" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="F708" t="s">
         <v>378</v>
       </c>
       <c r="G708" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="H708" t="s">
         <v>373</v>
       </c>
       <c r="I708" t="s">
-        <v>373</v>
-      </c>
-      <c r="J708" s="0"/>
+        <v>391</v>
+      </c>
+      <c r="J708" s="0">
+        <v>5</v>
+      </c>
       <c r="K708" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="L708" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="M708" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N708" s="0">
         <v>7</v>
       </c>
       <c r="O708" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="P708" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="Q708" t="s">
-        <v>373</v>
+        <v>428</v>
       </c>
       <c r="R708" t="s">
         <v>431</v>

--- a/produtores_Consider.xlsx
+++ b/produtores_Consider.xlsx
@@ -34167,7 +34167,7 @@
         <v>391</v>
       </c>
       <c r="P576" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q576" t="s">
         <v>428</v>
@@ -34226,7 +34226,7 @@
         <v>391</v>
       </c>
       <c r="P577" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q577" t="s">
         <v>428</v>
@@ -34282,7 +34282,7 @@
         <v>6</v>
       </c>
       <c r="O578" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="P578" t="s">
         <v>390</v>
@@ -34341,7 +34341,7 @@
         <v>6</v>
       </c>
       <c r="O579" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="P579" t="s">
         <v>390</v>
@@ -34757,7 +34757,7 @@
         <v>391</v>
       </c>
       <c r="P586" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q586" t="s">
         <v>428</v>
@@ -34816,7 +34816,7 @@
         <v>391</v>
       </c>
       <c r="P587" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q587" t="s">
         <v>428</v>
@@ -35569,7 +35569,7 @@
         <v>391</v>
       </c>
       <c r="P600" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="Q600" t="s">
         <v>428</v>
@@ -35626,7 +35626,7 @@
         <v>391</v>
       </c>
       <c r="P601" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="Q601" t="s">
         <v>428</v>
@@ -48157,7 +48157,7 @@
         <v>391</v>
       </c>
       <c r="M821" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N821" s="0">
         <v>8</v>
@@ -48214,7 +48214,7 @@
         <v>391</v>
       </c>
       <c r="M822" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N822" s="0">
         <v>8</v>
@@ -48271,7 +48271,7 @@
         <v>391</v>
       </c>
       <c r="M823" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N823" s="0">
         <v>8</v>
@@ -48328,7 +48328,7 @@
         <v>391</v>
       </c>
       <c r="M824" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N824" s="0">
         <v>8</v>
@@ -48385,7 +48385,7 @@
         <v>391</v>
       </c>
       <c r="M825" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N825" s="0">
         <v>8</v>
@@ -48442,7 +48442,7 @@
         <v>391</v>
       </c>
       <c r="M826" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N826" s="0">
         <v>8</v>
@@ -48499,7 +48499,7 @@
         <v>391</v>
       </c>
       <c r="M827" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N827" s="0">
         <v>8</v>
@@ -48556,7 +48556,7 @@
         <v>391</v>
       </c>
       <c r="M828" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N828" s="0">
         <v>8</v>
@@ -48613,7 +48613,7 @@
         <v>391</v>
       </c>
       <c r="M829" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N829" s="0">
         <v>8</v>
@@ -48670,7 +48670,7 @@
         <v>391</v>
       </c>
       <c r="M830" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N830" s="0">
         <v>8</v>
@@ -48727,7 +48727,7 @@
         <v>391</v>
       </c>
       <c r="M831" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N831" s="0">
         <v>8</v>
@@ -48784,7 +48784,7 @@
         <v>391</v>
       </c>
       <c r="M832" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N832" s="0">
         <v>8</v>
@@ -48841,7 +48841,7 @@
         <v>391</v>
       </c>
       <c r="M833" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N833" s="0">
         <v>8</v>
@@ -48898,7 +48898,7 @@
         <v>373</v>
       </c>
       <c r="M834" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N834" s="0">
         <v>8</v>
@@ -48955,7 +48955,7 @@
         <v>391</v>
       </c>
       <c r="M835" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N835" s="0">
         <v>8</v>
@@ -49012,7 +49012,7 @@
         <v>390</v>
       </c>
       <c r="M836" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N836" s="0">
         <v>8</v>
@@ -49067,7 +49067,7 @@
         <v>373</v>
       </c>
       <c r="M837" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N837" s="0">
         <v>8</v>
@@ -49124,7 +49124,7 @@
         <v>373</v>
       </c>
       <c r="M838" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N838" s="0">
         <v>8</v>
@@ -49181,7 +49181,7 @@
         <v>391</v>
       </c>
       <c r="M839" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N839" s="0">
         <v>8</v>
@@ -49238,7 +49238,7 @@
         <v>391</v>
       </c>
       <c r="M840" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N840" s="0">
         <v>8</v>
@@ -49293,7 +49293,7 @@
         <v>373</v>
       </c>
       <c r="M841" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N841" s="0">
         <v>8</v>
@@ -49348,7 +49348,7 @@
         <v>373</v>
       </c>
       <c r="M842" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N842" s="0">
         <v>8</v>
@@ -49405,7 +49405,7 @@
         <v>391</v>
       </c>
       <c r="M843" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N843" s="0">
         <v>8</v>
@@ -49462,7 +49462,7 @@
         <v>391</v>
       </c>
       <c r="M844" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N844" s="0">
         <v>8</v>
@@ -49519,7 +49519,7 @@
         <v>391</v>
       </c>
       <c r="M845" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N845" s="0">
         <v>8</v>
@@ -49576,7 +49576,7 @@
         <v>391</v>
       </c>
       <c r="M846" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N846" s="0">
         <v>8</v>
@@ -49633,7 +49633,7 @@
         <v>391</v>
       </c>
       <c r="M847" t="s">
-        <v>373</v>
+        <v>390</v>
       </c>
       <c r="N847" s="0">
         <v>8</v>
@@ -49690,7 +49690,7 @@
         <v>391</v>
       </c>
       <c r="M848" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N848" s="0">
         <v>8</v>
@@ -49747,7 +49747,7 @@
         <v>391</v>
       </c>
       <c r="M849" t="s">
-        <v>373</v>
+        <v>391</v>
       </c>
       <c r="N849" s="0">
         <v>8</v>

--- a/produtores_Consider.xlsx
+++ b/produtores_Consider.xlsx
@@ -48166,7 +48166,7 @@
         <v>388</v>
       </c>
       <c r="Q821" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R821" t="s">
         <v>428</v>
@@ -48223,7 +48223,7 @@
         <v>388</v>
       </c>
       <c r="Q822" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R822" t="s">
         <v>428</v>
@@ -48280,7 +48280,7 @@
         <v>388</v>
       </c>
       <c r="Q823" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R823" t="s">
         <v>428</v>
@@ -48337,7 +48337,7 @@
         <v>388</v>
       </c>
       <c r="Q824" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R824" t="s">
         <v>428</v>
@@ -48394,7 +48394,7 @@
         <v>388</v>
       </c>
       <c r="Q825" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R825" t="s">
         <v>428</v>
@@ -48451,7 +48451,7 @@
         <v>388</v>
       </c>
       <c r="Q826" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R826" t="s">
         <v>428</v>
@@ -48508,7 +48508,7 @@
         <v>388</v>
       </c>
       <c r="Q827" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R827" t="s">
         <v>428</v>
@@ -48565,7 +48565,7 @@
         <v>388</v>
       </c>
       <c r="Q828" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R828" t="s">
         <v>428</v>
@@ -48622,7 +48622,7 @@
         <v>388</v>
       </c>
       <c r="Q829" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R829" t="s">
         <v>428</v>
@@ -48679,7 +48679,7 @@
         <v>388</v>
       </c>
       <c r="Q830" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R830" t="s">
         <v>428</v>
@@ -48736,7 +48736,7 @@
         <v>388</v>
       </c>
       <c r="Q831" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R831" t="s">
         <v>428</v>
@@ -48793,7 +48793,7 @@
         <v>388</v>
       </c>
       <c r="Q832" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R832" t="s">
         <v>428</v>
@@ -48850,7 +48850,7 @@
         <v>388</v>
       </c>
       <c r="Q833" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="R833" t="s">
         <v>428</v>
@@ -48907,7 +48907,7 @@
         <v>388</v>
       </c>
       <c r="Q834" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R834" t="s">
         <v>428</v>
@@ -48964,7 +48964,7 @@
         <v>388</v>
       </c>
       <c r="Q835" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R835" t="s">
         <v>428</v>
@@ -49021,7 +49021,7 @@
         <v>388</v>
       </c>
       <c r="Q836" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R836" t="s">
         <v>428</v>
@@ -49076,7 +49076,7 @@
         <v>388</v>
       </c>
       <c r="Q837" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="R837" t="s">
         <v>428</v>
@@ -49133,7 +49133,7 @@
         <v>388</v>
       </c>
       <c r="Q838" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R838" t="s">
         <v>428</v>
@@ -49190,7 +49190,7 @@
         <v>388</v>
       </c>
       <c r="Q839" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R839" t="s">
         <v>428</v>
@@ -49247,7 +49247,7 @@
         <v>388</v>
       </c>
       <c r="Q840" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R840" t="s">
         <v>428</v>
@@ -49302,7 +49302,7 @@
         <v>388</v>
       </c>
       <c r="Q841" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="R841" t="s">
         <v>428</v>
@@ -49357,7 +49357,7 @@
         <v>388</v>
       </c>
       <c r="Q842" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="R842" t="s">
         <v>428</v>
@@ -49414,7 +49414,7 @@
         <v>388</v>
       </c>
       <c r="Q843" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R843" t="s">
         <v>428</v>
@@ -49471,7 +49471,7 @@
         <v>388</v>
       </c>
       <c r="Q844" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R844" t="s">
         <v>428</v>
@@ -49528,7 +49528,7 @@
         <v>388</v>
       </c>
       <c r="Q845" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R845" t="s">
         <v>428</v>
@@ -49585,7 +49585,7 @@
         <v>388</v>
       </c>
       <c r="Q846" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R846" t="s">
         <v>428</v>
@@ -49642,7 +49642,7 @@
         <v>388</v>
       </c>
       <c r="Q847" t="s">
-        <v>388</v>
+        <v>426</v>
       </c>
       <c r="R847" t="s">
         <v>428</v>
@@ -49699,7 +49699,7 @@
         <v>388</v>
       </c>
       <c r="Q848" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R848" t="s">
         <v>428</v>
@@ -49756,7 +49756,7 @@
         <v>388</v>
       </c>
       <c r="Q849" t="s">
-        <v>388</v>
+        <v>425</v>
       </c>
       <c r="R849" t="s">
         <v>428</v>

--- a/produtores_Consider.xlsx
+++ b/produtores_Consider.xlsx
@@ -34630,7 +34630,7 @@
         <v>387</v>
       </c>
       <c r="P584" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="Q584" t="s">
         <v>425</v>
@@ -34689,7 +34689,7 @@
         <v>387</v>
       </c>
       <c r="P585" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="Q585" t="s">
         <v>425</v>
@@ -35437,7 +35437,7 @@
         <v>386</v>
       </c>
       <c r="M598" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="N598" s="0">
         <v>6</v>
@@ -35449,7 +35449,7 @@
         <v>386</v>
       </c>
       <c r="Q598" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="R598" t="s">
         <v>428</v>
@@ -35494,7 +35494,7 @@
         <v>386</v>
       </c>
       <c r="M599" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="N599" s="0">
         <v>6</v>
@@ -35506,7 +35506,7 @@
         <v>386</v>
       </c>
       <c r="Q599" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="R599" t="s">
         <v>428</v>
